--- a/HybridFramework/Files/Yahoo.xlsx
+++ b/HybridFramework/Files/Yahoo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -574,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +599,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -604,7 +607,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/HybridFramework/Files/Yahoo.xlsx
+++ b/HybridFramework/Files/Yahoo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
   <si>
     <t>TCID</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>AddStockTest</t>
-  </si>
-  <si>
-    <t>DeleteStockTest</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -60,40 +54,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
-    <t>select</t>
-  </si>
-  <si>
-    <t>portfolioSelection_xpath</t>
-  </si>
-  <si>
-    <t>PortfolioName</t>
-  </si>
-  <si>
-    <t>waitForPageToLoad</t>
-  </si>
-  <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>addStock</t>
-  </si>
-  <si>
-    <t>deleteStock</t>
-  </si>
-  <si>
-    <t>buySellStock</t>
-  </si>
-  <si>
-    <t>BuyOrSellStockTest</t>
-  </si>
-  <si>
-    <t>CheckTransactionHistoryTest</t>
-  </si>
-  <si>
-    <t>checkHistory</t>
   </si>
   <si>
     <t>YahooSignIn</t>
@@ -203,24 +164,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -243,34 +204,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +526,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,18 +544,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -618,16 +566,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="23.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
@@ -639,470 +587,150 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="A6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="A8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="A13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1115,7 +743,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,25 +757,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>26</v>
+      <c r="A1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1155,50 +783,50 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>27</v>
+      <c r="A5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>36</v>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1206,22 +834,22 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7">
         <v>9999999999</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H7">
         <v>17</v>
